--- a/萬芳/萬芳退保250508.xlsx
+++ b/萬芳/萬芳退保250508.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\make_ex\萬芳\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\meiko_insurance\萬芳\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE39EC7-BCCC-468B-B571-859A3BD4FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3028B1-1D45-4EFE-B47F-1B53DFA5262A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11580" xr2:uid="{E333991A-B1DC-4604-BD8B-085C1AADE77A}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11580" xr2:uid="{E333991A-B1DC-4604-BD8B-085C1AADE77A}"/>
   </bookViews>
   <sheets>
     <sheet name="退保" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <r>
       <t xml:space="preserve">被保險人出生日期
@@ -297,34 +297,232 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>鄒昀甫</t>
+  </si>
+  <si>
+    <t>O100545599</t>
+  </si>
+  <si>
+    <t>0880305</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>周浥愷</t>
+  </si>
+  <si>
+    <t>F130585450</t>
+  </si>
+  <si>
+    <t>0951029</t>
+  </si>
+  <si>
+    <t>謝孟呈</t>
+  </si>
+  <si>
+    <t>A131065612</t>
+  </si>
+  <si>
+    <t>0920113</t>
+  </si>
+  <si>
+    <t>張予蓉</t>
+  </si>
+  <si>
+    <t>B223368312</t>
+  </si>
+  <si>
+    <t>0910528</t>
+  </si>
+  <si>
+    <t>范明祺</t>
+  </si>
+  <si>
+    <t>A131061936</t>
+  </si>
+  <si>
+    <t>0910820</t>
+  </si>
+  <si>
+    <t>林思妤</t>
+  </si>
+  <si>
+    <t>C221654478</t>
+  </si>
+  <si>
+    <t>0920304</t>
+  </si>
+  <si>
+    <t>薛稚菱</t>
+  </si>
+  <si>
+    <t>F231144651</t>
+  </si>
+  <si>
+    <t>0921024</t>
+  </si>
+  <si>
+    <t>李庭瑄</t>
+  </si>
+  <si>
+    <t>F230467959</t>
+  </si>
+  <si>
+    <t>0910128</t>
+  </si>
+  <si>
+    <t>吳妤恩</t>
+  </si>
+  <si>
+    <t>B223687143</t>
+  </si>
+  <si>
+    <t>0940430</t>
+  </si>
+  <si>
+    <t>楊蔚蕎</t>
+  </si>
+  <si>
+    <t>E280002390</t>
+  </si>
+  <si>
+    <t>0920601</t>
+  </si>
+  <si>
+    <t>蔡佩燁</t>
+  </si>
+  <si>
+    <t>I200362055</t>
+  </si>
+  <si>
+    <t>0930922</t>
+  </si>
+  <si>
+    <t>吳宥辰</t>
+  </si>
+  <si>
+    <t>N126651992</t>
+  </si>
+  <si>
+    <t>0920207</t>
+  </si>
+  <si>
+    <t>方喻萱</t>
+  </si>
+  <si>
+    <t>A230305708</t>
+  </si>
+  <si>
+    <t>0940422</t>
+  </si>
+  <si>
+    <t>黃舒愉</t>
+  </si>
+  <si>
+    <t>O200695872</t>
+  </si>
+  <si>
+    <t>0950509</t>
+  </si>
+  <si>
+    <t>范文晏</t>
+  </si>
+  <si>
+    <t>J223108840</t>
+  </si>
+  <si>
+    <t>0930318</t>
+  </si>
+  <si>
+    <t>江武雄</t>
+  </si>
+  <si>
+    <t>T126035340</t>
+  </si>
+  <si>
+    <t>0930224</t>
+  </si>
+  <si>
+    <t>陳黃博祥</t>
+  </si>
+  <si>
+    <t>U122044022</t>
+  </si>
+  <si>
+    <t>0930405</t>
+  </si>
+  <si>
+    <t>黃佳彬</t>
+  </si>
+  <si>
+    <t>C121655768</t>
+  </si>
+  <si>
+    <t>0910422</t>
+  </si>
+  <si>
+    <t>許沛妤</t>
+  </si>
+  <si>
+    <t>A230701979</t>
+  </si>
+  <si>
+    <t>0930911</t>
+  </si>
+  <si>
+    <t>陳歆祐</t>
+  </si>
+  <si>
+    <t>A130626433</t>
+  </si>
+  <si>
+    <t>0950716</t>
+  </si>
+  <si>
+    <t>胡庭熙</t>
+  </si>
+  <si>
+    <t>A230696231</t>
+  </si>
+  <si>
+    <t>0930223</t>
+  </si>
+  <si>
+    <t>王家瑜</t>
+  </si>
+  <si>
+    <t>T225821979</t>
+  </si>
+  <si>
     <t>鄭宸翔</t>
   </si>
   <si>
     <t>A131691078</t>
   </si>
   <si>
-    <t>0960520</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>黃佳彬</t>
-  </si>
-  <si>
-    <t>C121655768</t>
-  </si>
-  <si>
-    <t>0910422</t>
-  </si>
-  <si>
-    <t>蔡佩燁</t>
-  </si>
-  <si>
-    <t>I200362055</t>
-  </si>
-  <si>
-    <t>0930922</t>
+    <t>陳潔瑩</t>
+  </si>
+  <si>
+    <t>A224365261</t>
+  </si>
+  <si>
+    <t>郭品駿</t>
+  </si>
+  <si>
+    <t>T125873793</t>
+  </si>
+  <si>
+    <t>王若芸</t>
+  </si>
+  <si>
+    <t>L225871516</t>
+  </si>
+  <si>
+    <t>柯睿諭</t>
+  </si>
+  <si>
+    <t>R125151683</t>
   </si>
 </sst>
 </file>
@@ -691,66 +889,6 @@
       <sheetData sheetId="0">
         <row r="16">
           <cell r="A16" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
             <v/>
           </cell>
         </row>
@@ -2247,374 +2385,483 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="H5" s="5"/>
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="H6" s="5"/>
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="H7" s="5"/>
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="H8" s="5"/>
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="H9" s="5"/>
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="H10" s="5"/>
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="H11" s="5"/>
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="H12" s="5"/>
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="H13" s="5"/>
+      <c r="A13" s="6">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="H14" s="5"/>
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="H15" s="5"/>
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" t="str">
-        <f>IF([1]加保!A16=4,2,"")</f>
-        <v/>
-      </c>
-      <c r="B16" t="str">
-        <f>IF([1]加保!A16=4,[1]總表!$C$2,"")</f>
-        <v/>
-      </c>
-      <c r="C16" t="str">
-        <f>IF([1]加保!A16=4,[1]總表!$D$2,"")</f>
-        <v/>
-      </c>
-      <c r="E16" t="str">
-        <f>IF(A16=2,[1]加保!F16,"")</f>
-        <v/>
-      </c>
-      <c r="F16" t="str">
-        <f>IFERROR(VLOOKUP(E16,[1]總表!F:I,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H16" s="5" t="str">
-        <f>IFERROR(VLOOKUP(E16,[1]總表!F:I,3,FALSE),"")</f>
-        <v/>
+      <c r="A16" s="6">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" t="str">
-        <f>IF([1]加保!A17=4,2,"")</f>
-        <v/>
-      </c>
-      <c r="B17" t="str">
-        <f>IF([1]加保!A17=4,[1]總表!$C$2,"")</f>
-        <v/>
-      </c>
-      <c r="C17" t="str">
-        <f>IF([1]加保!A17=4,[1]總表!$D$2,"")</f>
-        <v/>
-      </c>
-      <c r="E17" t="str">
-        <f>IF(A17=2,[1]加保!F17,"")</f>
-        <v/>
-      </c>
-      <c r="F17" t="str">
-        <f>IFERROR(VLOOKUP(E17,[1]總表!F:I,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H17" s="5" t="str">
-        <f>IFERROR(VLOOKUP(E17,[1]總表!F:I,3,FALSE),"")</f>
-        <v/>
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" t="str">
-        <f>IF([1]加保!A18=4,2,"")</f>
-        <v/>
-      </c>
-      <c r="B18" t="str">
-        <f>IF([1]加保!A18=4,[1]總表!$C$2,"")</f>
-        <v/>
-      </c>
-      <c r="C18" t="str">
-        <f>IF([1]加保!A18=4,[1]總表!$D$2,"")</f>
-        <v/>
-      </c>
-      <c r="E18" t="str">
-        <f>IF(A18=2,[1]加保!F18,"")</f>
-        <v/>
-      </c>
-      <c r="F18" t="str">
-        <f>IFERROR(VLOOKUP(E18,[1]總表!F:I,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H18" s="5" t="str">
-        <f>IFERROR(VLOOKUP(E18,[1]總表!F:I,3,FALSE),"")</f>
-        <v/>
+      <c r="A18" s="6">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" t="str">
-        <f>IF([1]加保!A19=4,2,"")</f>
-        <v/>
-      </c>
-      <c r="B19" t="str">
-        <f>IF([1]加保!A19=4,[1]總表!$C$2,"")</f>
-        <v/>
-      </c>
-      <c r="C19" t="str">
-        <f>IF([1]加保!A19=4,[1]總表!$D$2,"")</f>
-        <v/>
-      </c>
-      <c r="E19" t="str">
-        <f>IF(A19=2,[1]加保!F19,"")</f>
-        <v/>
-      </c>
-      <c r="F19" t="str">
-        <f>IFERROR(VLOOKUP(E19,[1]總表!F:I,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H19" s="5" t="str">
-        <f>IFERROR(VLOOKUP(E19,[1]總表!F:I,3,FALSE),"")</f>
-        <v/>
+      <c r="A19" s="6">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" t="str">
-        <f>IF([1]加保!A20=4,2,"")</f>
-        <v/>
-      </c>
-      <c r="B20" t="str">
-        <f>IF([1]加保!A20=4,[1]總表!$C$2,"")</f>
-        <v/>
-      </c>
-      <c r="C20" t="str">
-        <f>IF([1]加保!A20=4,[1]總表!$D$2,"")</f>
-        <v/>
-      </c>
-      <c r="E20" t="str">
-        <f>IF(A20=2,[1]加保!F20,"")</f>
-        <v/>
-      </c>
-      <c r="F20" t="str">
-        <f>IFERROR(VLOOKUP(E20,[1]總表!F:I,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H20" s="5" t="str">
-        <f>IFERROR(VLOOKUP(E20,[1]總表!F:I,3,FALSE),"")</f>
-        <v/>
+      <c r="A20" s="6">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" t="str">
-        <f>IF([1]加保!A21=4,2,"")</f>
-        <v/>
-      </c>
-      <c r="B21" t="str">
-        <f>IF([1]加保!A21=4,[1]總表!$C$2,"")</f>
-        <v/>
-      </c>
-      <c r="C21" t="str">
-        <f>IF([1]加保!A21=4,[1]總表!$D$2,"")</f>
-        <v/>
-      </c>
-      <c r="E21" t="str">
-        <f>IF(A21=2,[1]加保!F21,"")</f>
-        <v/>
-      </c>
-      <c r="F21" t="str">
-        <f>IFERROR(VLOOKUP(E21,[1]總表!F:I,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H21" s="5" t="str">
-        <f>IFERROR(VLOOKUP(E21,[1]總表!F:I,3,FALSE),"")</f>
-        <v/>
+      <c r="A21" s="6">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" t="str">
-        <f>IF([1]加保!A22=4,2,"")</f>
-        <v/>
-      </c>
-      <c r="B22" t="str">
-        <f>IF([1]加保!A22=4,[1]總表!$C$2,"")</f>
-        <v/>
-      </c>
-      <c r="C22" t="str">
-        <f>IF([1]加保!A22=4,[1]總表!$D$2,"")</f>
-        <v/>
-      </c>
-      <c r="E22" t="str">
-        <f>IF(A22=2,[1]加保!F22,"")</f>
-        <v/>
-      </c>
-      <c r="F22" t="str">
-        <f>IFERROR(VLOOKUP(E22,[1]總表!F:I,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H22" s="5" t="str">
-        <f>IFERROR(VLOOKUP(E22,[1]總表!F:I,3,FALSE),"")</f>
-        <v/>
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" t="str">
-        <f>IF([1]加保!A23=4,2,"")</f>
-        <v/>
-      </c>
-      <c r="B23" t="str">
-        <f>IF([1]加保!A23=4,[1]總表!$C$2,"")</f>
-        <v/>
-      </c>
-      <c r="C23" t="str">
-        <f>IF([1]加保!A23=4,[1]總表!$D$2,"")</f>
-        <v/>
-      </c>
-      <c r="E23" t="str">
-        <f>IF(A23=2,[1]加保!F23,"")</f>
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <f>IFERROR(VLOOKUP(E23,[1]總表!F:I,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H23" t="str">
-        <f>IFERROR(VLOOKUP(E23,[1]總表!F:I,3,FALSE),"")</f>
-        <v/>
+      <c r="A23" s="6">
+        <v>2</v>
+      </c>
+      <c r="B23" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23">
+        <v>930125</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" t="str">
-        <f>IF([1]加保!A24=4,2,"")</f>
-        <v/>
-      </c>
-      <c r="B24" t="str">
-        <f>IF([1]加保!A24=4,[1]總表!$C$2,"")</f>
-        <v/>
-      </c>
-      <c r="C24" t="str">
-        <f>IF([1]加保!A24=4,[1]總表!$D$2,"")</f>
-        <v/>
-      </c>
-      <c r="E24" t="str">
-        <f>IF(A24=2,[1]加保!F24,"")</f>
-        <v/>
-      </c>
-      <c r="F24" t="str">
-        <f>IFERROR(VLOOKUP(E24,[1]總表!F:I,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H24" t="str">
-        <f>IFERROR(VLOOKUP(E24,[1]總表!F:I,3,FALSE),"")</f>
-        <v/>
+      <c r="A24" s="6">
+        <v>2</v>
+      </c>
+      <c r="B24" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24">
+        <v>960520</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" t="str">
-        <f>IF([1]加保!A25=4,2,"")</f>
-        <v/>
-      </c>
-      <c r="B25" t="str">
-        <f>IF([1]加保!A25=4,[1]總表!$C$2,"")</f>
-        <v/>
-      </c>
-      <c r="C25" t="str">
-        <f>IF([1]加保!A25=4,[1]總表!$D$2,"")</f>
-        <v/>
-      </c>
-      <c r="E25" t="str">
-        <f>IF(A25=2,[1]加保!F25,"")</f>
-        <v/>
-      </c>
-      <c r="F25" t="str">
-        <f>IFERROR(VLOOKUP(E25,[1]總表!F:I,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H25" t="str">
-        <f>IFERROR(VLOOKUP(E25,[1]總表!F:I,3,FALSE),"")</f>
-        <v/>
+      <c r="A25" s="6">
+        <v>2</v>
+      </c>
+      <c r="B25" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25">
+        <v>650327</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" t="str">
-        <f>IF([1]加保!A26=4,2,"")</f>
-        <v/>
-      </c>
-      <c r="B26" t="str">
-        <f>IF([1]加保!A26=4,[1]總表!$C$2,"")</f>
-        <v/>
-      </c>
-      <c r="C26" t="str">
-        <f>IF([1]加保!A26=4,[1]總表!$D$2,"")</f>
-        <v/>
-      </c>
-      <c r="E26" t="str">
-        <f>IF(A26=2,[1]加保!F26,"")</f>
-        <v/>
-      </c>
-      <c r="F26" t="str">
-        <f>IFERROR(VLOOKUP(E26,[1]總表!F:I,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H26" t="str">
-        <f>IFERROR(VLOOKUP(E26,[1]總表!F:I,3,FALSE),"")</f>
-        <v/>
+      <c r="A26" s="6">
+        <v>2</v>
+      </c>
+      <c r="B26" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26">
+        <v>911023</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" t="str">
-        <f>IF([1]加保!A27=4,2,"")</f>
-        <v/>
-      </c>
-      <c r="B27" t="str">
-        <f>IF([1]加保!A27=4,[1]總表!$C$2,"")</f>
-        <v/>
-      </c>
-      <c r="C27" t="str">
-        <f>IF([1]加保!A27=4,[1]總表!$D$2,"")</f>
-        <v/>
-      </c>
-      <c r="E27" t="str">
-        <f>IF(A27=2,[1]加保!F27,"")</f>
-        <v/>
-      </c>
-      <c r="F27" t="str">
-        <f>IFERROR(VLOOKUP(E27,[1]總表!F:I,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H27" t="str">
-        <f>IFERROR(VLOOKUP(E27,[1]總表!F:I,3,FALSE),"")</f>
-        <v/>
+      <c r="A27" s="6">
+        <v>2</v>
+      </c>
+      <c r="B27" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27">
+        <v>930611</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" t="str">
-        <f>IF([1]加保!A28=4,2,"")</f>
-        <v/>
-      </c>
-      <c r="B28" t="str">
-        <f>IF([1]加保!A28=4,[1]總表!$C$2,"")</f>
-        <v/>
-      </c>
-      <c r="C28" t="str">
-        <f>IF([1]加保!A28=4,[1]總表!$D$2,"")</f>
-        <v/>
-      </c>
-      <c r="E28" t="str">
-        <f>IF(A28=2,[1]加保!F28,"")</f>
-        <v/>
-      </c>
-      <c r="F28" t="str">
-        <f>IFERROR(VLOOKUP(E28,[1]總表!F:I,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H28" t="str">
-        <f>IFERROR(VLOOKUP(E28,[1]總表!F:I,3,FALSE),"")</f>
-        <v/>
+      <c r="A28" s="6">
+        <v>2</v>
+      </c>
+      <c r="B28" s="6">
+        <v>15027516</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28">
+        <v>920921</v>
       </c>
     </row>
     <row r="29" spans="1:8">
